--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tnf-Tnfrsf1a.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tnf-Tnfrsf1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,6 +88,9 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Tnf</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.59373289448239</v>
+        <v>2.6547335</v>
       </c>
       <c r="H2">
-        <v>2.59373289448239</v>
+        <v>5.309467</v>
       </c>
       <c r="I2">
-        <v>0.02167096327720511</v>
+        <v>0.0217599137463543</v>
       </c>
       <c r="J2">
-        <v>0.02167096327720511</v>
+        <v>0.01461872606984402</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>48.5505643347442</v>
+        <v>49.0911085</v>
       </c>
       <c r="N2">
-        <v>48.5505643347442</v>
+        <v>98.18221700000001</v>
       </c>
       <c r="O2">
-        <v>0.2033029799830369</v>
+        <v>0.1999782101047527</v>
       </c>
       <c r="P2">
-        <v>0.2033029799830369</v>
+        <v>0.1476650982825601</v>
       </c>
       <c r="Q2">
-        <v>125.9271957607096</v>
+        <v>130.3238102870848</v>
       </c>
       <c r="R2">
-        <v>125.9271957607096</v>
+        <v>521.2952411483391</v>
       </c>
       <c r="S2">
-        <v>0.004405771413358759</v>
+        <v>0.004351508603029735</v>
       </c>
       <c r="T2">
-        <v>0.004405771413358759</v>
+        <v>0.002158675621869342</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.59373289448239</v>
+        <v>2.6547335</v>
       </c>
       <c r="H3">
-        <v>2.59373289448239</v>
+        <v>5.309467</v>
       </c>
       <c r="I3">
-        <v>0.02167096327720511</v>
+        <v>0.0217599137463543</v>
       </c>
       <c r="J3">
-        <v>0.02167096327720511</v>
+        <v>0.01461872606984402</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.8197927672505</v>
+        <v>49.64327433333333</v>
       </c>
       <c r="N3">
-        <v>45.8197927672505</v>
+        <v>148.929823</v>
       </c>
       <c r="O3">
-        <v>0.1918680151184345</v>
+        <v>0.2022275203852691</v>
       </c>
       <c r="P3">
-        <v>0.1918680151184345</v>
+        <v>0.2239890035330867</v>
       </c>
       <c r="Q3">
-        <v>118.8443037187839</v>
+        <v>131.7896634223902</v>
       </c>
       <c r="R3">
-        <v>118.8443037187839</v>
+        <v>790.737980534341</v>
       </c>
       <c r="S3">
-        <v>0.00415796470970183</v>
+        <v>0.004400453400722561</v>
       </c>
       <c r="T3">
-        <v>0.00415796470970183</v>
+        <v>0.003274433885307519</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.59373289448239</v>
+        <v>2.6547335</v>
       </c>
       <c r="H4">
-        <v>2.59373289448239</v>
+        <v>5.309467</v>
       </c>
       <c r="I4">
-        <v>0.02167096327720511</v>
+        <v>0.0217599137463543</v>
       </c>
       <c r="J4">
-        <v>0.02167096327720511</v>
+        <v>0.01461872606984402</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.7462864034789</v>
+        <v>46.493336</v>
       </c>
       <c r="N4">
-        <v>45.7462864034789</v>
+        <v>139.480008</v>
       </c>
       <c r="O4">
-        <v>0.1915602110175501</v>
+        <v>0.1893958885666406</v>
       </c>
       <c r="P4">
-        <v>0.1915602110175501</v>
+        <v>0.209776573794135</v>
       </c>
       <c r="Q4">
-        <v>118.6536478451157</v>
+        <v>123.427416605956</v>
       </c>
       <c r="R4">
-        <v>118.6536478451157</v>
+        <v>740.564499635736</v>
       </c>
       <c r="S4">
-        <v>0.004151294298334992</v>
+        <v>0.004121238199124229</v>
       </c>
       <c r="T4">
-        <v>0.004151294298334992</v>
+        <v>0.003066666268166879</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.59373289448239</v>
+        <v>2.6547335</v>
       </c>
       <c r="H5">
-        <v>2.59373289448239</v>
+        <v>5.309467</v>
       </c>
       <c r="I5">
-        <v>0.02167096327720511</v>
+        <v>0.0217599137463543</v>
       </c>
       <c r="J5">
-        <v>0.02167096327720511</v>
+        <v>0.01461872606984402</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>47.4973459622794</v>
+        <v>47.50960133333334</v>
       </c>
       <c r="N5">
-        <v>47.4973459622794</v>
+        <v>142.528804</v>
       </c>
       <c r="O5">
-        <v>0.1988926824586115</v>
+        <v>0.193535760909338</v>
       </c>
       <c r="P5">
-        <v>0.1988926824586115</v>
+        <v>0.2143619332893629</v>
       </c>
       <c r="Q5">
-        <v>123.1954286229744</v>
+        <v>126.1253302312447</v>
       </c>
       <c r="R5">
-        <v>123.1954286229744</v>
+        <v>756.751981387468</v>
       </c>
       <c r="S5">
-        <v>0.004310196017665388</v>
+        <v>0.004211321464222243</v>
       </c>
       <c r="T5">
-        <v>0.004310196017665388</v>
+        <v>0.003133698382559374</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.59373289448239</v>
+        <v>2.6547335</v>
       </c>
       <c r="H6">
-        <v>2.59373289448239</v>
+        <v>5.309467</v>
       </c>
       <c r="I6">
-        <v>0.02167096327720511</v>
+        <v>0.0217599137463543</v>
       </c>
       <c r="J6">
-        <v>0.02167096327720511</v>
+        <v>0.01461872606984402</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.1032015654885</v>
+        <v>30.287135</v>
       </c>
       <c r="N6">
-        <v>29.1032015654885</v>
+        <v>90.861405</v>
       </c>
       <c r="O6">
-        <v>0.1218681530561857</v>
+        <v>0.1233780868179216</v>
       </c>
       <c r="P6">
-        <v>0.1218681530561857</v>
+        <v>0.1366546683236589</v>
       </c>
       <c r="Q6">
-        <v>75.48593123515892</v>
+        <v>80.4042719035225</v>
       </c>
       <c r="R6">
-        <v>75.48593123515892</v>
+        <v>482.425631421135</v>
       </c>
       <c r="S6">
-        <v>0.002641000269541413</v>
+        <v>0.002684696527348186</v>
       </c>
       <c r="T6">
-        <v>0.002641000269541413</v>
+        <v>0.00199771716238896</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.59373289448239</v>
+        <v>2.6547335</v>
       </c>
       <c r="H7">
-        <v>2.59373289448239</v>
+        <v>5.309467</v>
       </c>
       <c r="I7">
-        <v>0.02167096327720511</v>
+        <v>0.0217599137463543</v>
       </c>
       <c r="J7">
-        <v>0.02167096327720511</v>
+        <v>0.01461872606984402</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.0917252885711</v>
+        <v>22.4578325</v>
       </c>
       <c r="N7">
-        <v>22.0917252885711</v>
+        <v>44.915665</v>
       </c>
       <c r="O7">
-        <v>0.09250795836618125</v>
+        <v>0.09148453321607808</v>
       </c>
       <c r="P7">
-        <v>0.09250795836618125</v>
+        <v>0.06755272277719647</v>
       </c>
       <c r="Q7">
-        <v>57.30003457683534</v>
+        <v>59.61956027513875</v>
       </c>
       <c r="R7">
-        <v>57.30003457683534</v>
+        <v>238.478241100555</v>
       </c>
       <c r="S7">
-        <v>0.002004736568602733</v>
+        <v>0.001990695551907344</v>
       </c>
       <c r="T7">
-        <v>0.002004736568602733</v>
+        <v>0.0009875347495519481</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>57.8255675024555</v>
+        <v>59.35321066666666</v>
       </c>
       <c r="H8">
-        <v>57.8255675024555</v>
+        <v>178.059632</v>
       </c>
       <c r="I8">
-        <v>0.4831398608912413</v>
+        <v>0.486497324373939</v>
       </c>
       <c r="J8">
-        <v>0.4831398608912413</v>
+        <v>0.4902573053576249</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>48.5505643347442</v>
+        <v>49.0911085</v>
       </c>
       <c r="N8">
-        <v>48.5505643347442</v>
+        <v>98.18221700000001</v>
       </c>
       <c r="O8">
-        <v>0.2033029799830369</v>
+        <v>0.1999782101047527</v>
       </c>
       <c r="P8">
-        <v>0.2033029799830369</v>
+        <v>0.1476650982825601</v>
       </c>
       <c r="Q8">
-        <v>2807.463935221059</v>
+        <v>2913.714904660691</v>
       </c>
       <c r="R8">
-        <v>2807.463935221059</v>
+        <v>17482.28942796414</v>
       </c>
       <c r="S8">
-        <v>0.09822377346777926</v>
+        <v>0.09728886414905158</v>
       </c>
       <c r="T8">
-        <v>0.09822377346777926</v>
+        <v>0.07239389317937678</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>57.8255675024555</v>
+        <v>59.35321066666666</v>
       </c>
       <c r="H9">
-        <v>57.8255675024555</v>
+        <v>178.059632</v>
       </c>
       <c r="I9">
-        <v>0.4831398608912413</v>
+        <v>0.486497324373939</v>
       </c>
       <c r="J9">
-        <v>0.4831398608912413</v>
+        <v>0.4902573053576249</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.8197927672505</v>
+        <v>49.64327433333333</v>
       </c>
       <c r="N9">
-        <v>45.8197927672505</v>
+        <v>148.929823</v>
       </c>
       <c r="O9">
-        <v>0.1918680151184345</v>
+        <v>0.2022275203852691</v>
       </c>
       <c r="P9">
-        <v>0.1918680151184345</v>
+        <v>0.2239890035330867</v>
       </c>
       <c r="Q9">
-        <v>2649.555519611166</v>
+        <v>2946.487719689459</v>
       </c>
       <c r="R9">
-        <v>2649.555519611166</v>
+        <v>26518.38947720514</v>
       </c>
       <c r="S9">
-        <v>0.09269908613379901</v>
+        <v>0.09838314758220963</v>
       </c>
       <c r="T9">
-        <v>0.09269908613379901</v>
+        <v>0.1098122453018706</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>57.8255675024555</v>
+        <v>59.35321066666666</v>
       </c>
       <c r="H10">
-        <v>57.8255675024555</v>
+        <v>178.059632</v>
       </c>
       <c r="I10">
-        <v>0.4831398608912413</v>
+        <v>0.486497324373939</v>
       </c>
       <c r="J10">
-        <v>0.4831398608912413</v>
+        <v>0.4902573053576249</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.7462864034789</v>
+        <v>46.493336</v>
       </c>
       <c r="N10">
-        <v>45.7462864034789</v>
+        <v>139.480008</v>
       </c>
       <c r="O10">
-        <v>0.1915602110175501</v>
+        <v>0.1893958885666406</v>
       </c>
       <c r="P10">
-        <v>0.1915602110175501</v>
+        <v>0.209776573794135</v>
       </c>
       <c r="Q10">
-        <v>2645.304972411031</v>
+        <v>2759.528766204117</v>
       </c>
       <c r="R10">
-        <v>2645.304972411031</v>
+        <v>24835.75889583705</v>
       </c>
       <c r="S10">
-        <v>0.09255037370331599</v>
+        <v>0.09214059303509534</v>
       </c>
       <c r="T10">
-        <v>0.09255037370331599</v>
+        <v>0.1028444977954676</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>57.8255675024555</v>
+        <v>59.35321066666666</v>
       </c>
       <c r="H11">
-        <v>57.8255675024555</v>
+        <v>178.059632</v>
       </c>
       <c r="I11">
-        <v>0.4831398608912413</v>
+        <v>0.486497324373939</v>
       </c>
       <c r="J11">
-        <v>0.4831398608912413</v>
+        <v>0.4902573053576249</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>47.4973459622794</v>
+        <v>47.50960133333334</v>
       </c>
       <c r="N11">
-        <v>47.4973459622794</v>
+        <v>142.528804</v>
       </c>
       <c r="O11">
-        <v>0.1988926824586115</v>
+        <v>0.193535760909338</v>
       </c>
       <c r="P11">
-        <v>0.1988926824586115</v>
+        <v>0.2143619332893629</v>
       </c>
       <c r="Q11">
-        <v>2746.560985129269</v>
+        <v>2819.847376626681</v>
       </c>
       <c r="R11">
-        <v>2746.560985129269</v>
+        <v>25378.62638964013</v>
       </c>
       <c r="S11">
-        <v>0.09609298293533938</v>
+        <v>0.09415462985306731</v>
       </c>
       <c r="T11">
-        <v>0.09609298293533938</v>
+        <v>0.105092503785694</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>57.8255675024555</v>
+        <v>59.35321066666666</v>
       </c>
       <c r="H12">
-        <v>57.8255675024555</v>
+        <v>178.059632</v>
       </c>
       <c r="I12">
-        <v>0.4831398608912413</v>
+        <v>0.486497324373939</v>
       </c>
       <c r="J12">
-        <v>0.4831398608912413</v>
+        <v>0.4902573053576249</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.1032015654885</v>
+        <v>30.287135</v>
       </c>
       <c r="N12">
-        <v>29.1032015654885</v>
+        <v>90.861405</v>
       </c>
       <c r="O12">
-        <v>0.1218681530561857</v>
+        <v>0.1233780868179216</v>
       </c>
       <c r="P12">
-        <v>0.1218681530561857</v>
+        <v>0.1366546683236589</v>
       </c>
       <c r="Q12">
-        <v>1682.909146662724</v>
+        <v>1797.638704144773</v>
       </c>
       <c r="R12">
-        <v>1682.909146662724</v>
+        <v>16178.74833730296</v>
       </c>
       <c r="S12">
-        <v>0.05887936251463806</v>
+        <v>0.06002310912329441</v>
       </c>
       <c r="T12">
-        <v>0.05887936251463806</v>
+        <v>0.06699594945689698</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>57.8255675024555</v>
+        <v>59.35321066666666</v>
       </c>
       <c r="H13">
-        <v>57.8255675024555</v>
+        <v>178.059632</v>
       </c>
       <c r="I13">
-        <v>0.4831398608912413</v>
+        <v>0.486497324373939</v>
       </c>
       <c r="J13">
-        <v>0.4831398608912413</v>
+        <v>0.4902573053576249</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.0917252885711</v>
+        <v>22.4578325</v>
       </c>
       <c r="N13">
-        <v>22.0917252885711</v>
+        <v>44.915665</v>
       </c>
       <c r="O13">
-        <v>0.09250795836618125</v>
+        <v>0.09148453321607808</v>
       </c>
       <c r="P13">
-        <v>0.09250795836618125</v>
+        <v>0.06755272277719647</v>
       </c>
       <c r="Q13">
-        <v>1277.466551919971</v>
+        <v>1332.944463489213</v>
       </c>
       <c r="R13">
-        <v>1277.466551919971</v>
+        <v>7997.66678093528</v>
       </c>
       <c r="S13">
-        <v>0.04469428213636955</v>
+        <v>0.04450698063122074</v>
       </c>
       <c r="T13">
-        <v>0.04469428213636955</v>
+        <v>0.03311821583831899</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>53.7426244338565</v>
+        <v>54.30244433333333</v>
       </c>
       <c r="H14">
-        <v>53.7426244338565</v>
+        <v>162.907333</v>
       </c>
       <c r="I14">
-        <v>0.4490263600404971</v>
+        <v>0.4450979749604015</v>
       </c>
       <c r="J14">
-        <v>0.4490263600404971</v>
+        <v>0.4485379937187408</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>48.5505643347442</v>
+        <v>49.0911085</v>
       </c>
       <c r="N14">
-        <v>48.5505643347442</v>
+        <v>98.18221700000001</v>
       </c>
       <c r="O14">
-        <v>0.2033029799830369</v>
+        <v>0.1999782101047527</v>
       </c>
       <c r="P14">
-        <v>0.2033029799830369</v>
+        <v>0.1476650982825601</v>
       </c>
       <c r="Q14">
-        <v>2609.234745093946</v>
+        <v>2665.767186582877</v>
       </c>
       <c r="R14">
-        <v>2609.234745093946</v>
+        <v>15994.60311949726</v>
       </c>
       <c r="S14">
-        <v>0.0912883970871691</v>
+        <v>0.08900989635383111</v>
       </c>
       <c r="T14">
-        <v>0.0912883970871691</v>
+        <v>0.06623340692594019</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>53.7426244338565</v>
+        <v>54.30244433333333</v>
       </c>
       <c r="H15">
-        <v>53.7426244338565</v>
+        <v>162.907333</v>
       </c>
       <c r="I15">
-        <v>0.4490263600404971</v>
+        <v>0.4450979749604015</v>
       </c>
       <c r="J15">
-        <v>0.4490263600404971</v>
+        <v>0.4485379937187408</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.8197927672505</v>
+        <v>49.64327433333333</v>
       </c>
       <c r="N15">
-        <v>45.8197927672505</v>
+        <v>148.929823</v>
       </c>
       <c r="O15">
-        <v>0.1918680151184345</v>
+        <v>0.2022275203852691</v>
       </c>
       <c r="P15">
-        <v>0.1918680151184345</v>
+        <v>0.2239890035330867</v>
       </c>
       <c r="Q15">
-        <v>2462.475914327478</v>
+        <v>2695.751141010229</v>
       </c>
       <c r="R15">
-        <v>2462.475914327478</v>
+        <v>24261.76026909206</v>
       </c>
       <c r="S15">
-        <v>0.08615379643682571</v>
+        <v>0.09001105980474659</v>
       </c>
       <c r="T15">
-        <v>0.08615379643682571</v>
+        <v>0.1004675782597906</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>53.7426244338565</v>
+        <v>54.30244433333333</v>
       </c>
       <c r="H16">
-        <v>53.7426244338565</v>
+        <v>162.907333</v>
       </c>
       <c r="I16">
-        <v>0.4490263600404971</v>
+        <v>0.4450979749604015</v>
       </c>
       <c r="J16">
-        <v>0.4490263600404971</v>
+        <v>0.4485379937187408</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>45.7462864034789</v>
+        <v>46.493336</v>
       </c>
       <c r="N16">
-        <v>45.7462864034789</v>
+        <v>139.480008</v>
       </c>
       <c r="O16">
-        <v>0.1915602110175501</v>
+        <v>0.1893958885666406</v>
       </c>
       <c r="P16">
-        <v>0.1915602110175501</v>
+        <v>0.209776573794135</v>
       </c>
       <c r="Q16">
-        <v>2458.525489425802</v>
+        <v>2524.701790010963</v>
       </c>
       <c r="R16">
-        <v>2458.525489425802</v>
+        <v>22722.31611009866</v>
       </c>
       <c r="S16">
-        <v>0.08601558428180008</v>
+        <v>0.08429972646683756</v>
       </c>
       <c r="T16">
-        <v>0.08601558428180008</v>
+        <v>0.09409276353881267</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>53.7426244338565</v>
+        <v>54.30244433333333</v>
       </c>
       <c r="H17">
-        <v>53.7426244338565</v>
+        <v>162.907333</v>
       </c>
       <c r="I17">
-        <v>0.4490263600404971</v>
+        <v>0.4450979749604015</v>
       </c>
       <c r="J17">
-        <v>0.4490263600404971</v>
+        <v>0.4485379937187408</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>47.4973459622794</v>
+        <v>47.50960133333334</v>
       </c>
       <c r="N17">
-        <v>47.4973459622794</v>
+        <v>142.528804</v>
       </c>
       <c r="O17">
-        <v>0.1988926824586115</v>
+        <v>0.193535760909338</v>
       </c>
       <c r="P17">
-        <v>0.1988926824586115</v>
+        <v>0.2143619332893629</v>
       </c>
       <c r="Q17">
-        <v>2552.632025655732</v>
+        <v>2579.887481702192</v>
       </c>
       <c r="R17">
-        <v>2552.632025655732</v>
+        <v>23218.98733531973</v>
       </c>
       <c r="S17">
-        <v>0.08930805724308075</v>
+        <v>0.08614237526316677</v>
       </c>
       <c r="T17">
-        <v>0.08930805724308075</v>
+        <v>0.09614947148728138</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>53.7426244338565</v>
+        <v>54.30244433333333</v>
       </c>
       <c r="H18">
-        <v>53.7426244338565</v>
+        <v>162.907333</v>
       </c>
       <c r="I18">
-        <v>0.4490263600404971</v>
+        <v>0.4450979749604015</v>
       </c>
       <c r="J18">
-        <v>0.4490263600404971</v>
+        <v>0.4485379937187408</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>29.1032015654885</v>
+        <v>30.287135</v>
       </c>
       <c r="N18">
-        <v>29.1032015654885</v>
+        <v>90.861405</v>
       </c>
       <c r="O18">
-        <v>0.1218681530561857</v>
+        <v>0.1233780868179216</v>
       </c>
       <c r="P18">
-        <v>0.1218681530561857</v>
+        <v>0.1366546683236589</v>
       </c>
       <c r="Q18">
-        <v>1564.082431556873</v>
+        <v>1644.665462353652</v>
       </c>
       <c r="R18">
-        <v>1564.082431556873</v>
+        <v>14801.98916118287</v>
       </c>
       <c r="S18">
-        <v>0.05472201317167725</v>
+        <v>0.0549153365971455</v>
       </c>
       <c r="T18">
-        <v>0.05472201317167725</v>
+        <v>0.0612948107621939</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>53.7426244338565</v>
+        <v>54.30244433333333</v>
       </c>
       <c r="H19">
-        <v>53.7426244338565</v>
+        <v>162.907333</v>
       </c>
       <c r="I19">
-        <v>0.4490263600404971</v>
+        <v>0.4450979749604015</v>
       </c>
       <c r="J19">
-        <v>0.4490263600404971</v>
+        <v>0.4485379937187408</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>22.0917252885711</v>
+        <v>22.4578325</v>
       </c>
       <c r="N19">
-        <v>22.0917252885711</v>
+        <v>44.915665</v>
       </c>
       <c r="O19">
-        <v>0.09250795836618125</v>
+        <v>0.09148453321607808</v>
       </c>
       <c r="P19">
-        <v>0.09250795836618125</v>
+        <v>0.06755272277719647</v>
       </c>
       <c r="Q19">
-        <v>1187.267295279607</v>
+        <v>1219.515199178574</v>
       </c>
       <c r="R19">
-        <v>1187.267295279607</v>
+        <v>7317.091195071445</v>
       </c>
       <c r="S19">
-        <v>0.04153851181994422</v>
+        <v>0.04071958047467394</v>
       </c>
       <c r="T19">
-        <v>0.04153851181994422</v>
+        <v>0.03029996274472199</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.5250895997382</v>
+        <v>5.538422</v>
       </c>
       <c r="H20">
-        <v>5.5250895997382</v>
+        <v>16.615266</v>
       </c>
       <c r="I20">
-        <v>0.04616281579105653</v>
+        <v>0.04539649083831242</v>
       </c>
       <c r="J20">
-        <v>0.04616281579105653</v>
+        <v>0.04574734568113767</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>48.5505643347442</v>
+        <v>49.0911085</v>
       </c>
       <c r="N20">
-        <v>48.5505643347442</v>
+        <v>98.18221700000001</v>
       </c>
       <c r="O20">
-        <v>0.2033029799830369</v>
+        <v>0.1999782101047527</v>
       </c>
       <c r="P20">
-        <v>0.2033029799830369</v>
+        <v>0.1476650982825601</v>
       </c>
       <c r="Q20">
-        <v>268.2462180673156</v>
+        <v>271.887275320787</v>
       </c>
       <c r="R20">
-        <v>268.2462180673156</v>
+        <v>1631.323651924722</v>
       </c>
       <c r="S20">
-        <v>0.009385038014729785</v>
+        <v>0.00907830898288252</v>
       </c>
       <c r="T20">
-        <v>0.009385038014729785</v>
+        <v>0.006755286296171447</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.5250895997382</v>
+        <v>5.538422</v>
       </c>
       <c r="H21">
-        <v>5.5250895997382</v>
+        <v>16.615266</v>
       </c>
       <c r="I21">
-        <v>0.04616281579105653</v>
+        <v>0.04539649083831242</v>
       </c>
       <c r="J21">
-        <v>0.04616281579105653</v>
+        <v>0.04574734568113767</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>45.8197927672505</v>
+        <v>49.64327433333333</v>
       </c>
       <c r="N21">
-        <v>45.8197927672505</v>
+        <v>148.929823</v>
       </c>
       <c r="O21">
-        <v>0.1918680151184345</v>
+        <v>0.2022275203852691</v>
       </c>
       <c r="P21">
-        <v>0.1918680151184345</v>
+        <v>0.2239890035330867</v>
       </c>
       <c r="Q21">
-        <v>253.1584604804953</v>
+        <v>274.9454027197687</v>
       </c>
       <c r="R21">
-        <v>253.1584604804953</v>
+        <v>2474.508624477918</v>
       </c>
       <c r="S21">
-        <v>0.00885716783810794</v>
+        <v>0.009180419776424507</v>
       </c>
       <c r="T21">
-        <v>0.00885716783810794</v>
+        <v>0.01024690237340169</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.5250895997382</v>
+        <v>5.538422</v>
       </c>
       <c r="H22">
-        <v>5.5250895997382</v>
+        <v>16.615266</v>
       </c>
       <c r="I22">
-        <v>0.04616281579105653</v>
+        <v>0.04539649083831242</v>
       </c>
       <c r="J22">
-        <v>0.04616281579105653</v>
+        <v>0.04574734568113767</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>45.7462864034789</v>
+        <v>46.493336</v>
       </c>
       <c r="N22">
-        <v>45.7462864034789</v>
+        <v>139.480008</v>
       </c>
       <c r="O22">
-        <v>0.1915602110175501</v>
+        <v>0.1893958885666406</v>
       </c>
       <c r="P22">
-        <v>0.1915602110175501</v>
+        <v>0.209776573794135</v>
       </c>
       <c r="Q22">
-        <v>252.7523312345063</v>
+        <v>257.499714955792</v>
       </c>
       <c r="R22">
-        <v>252.7523312345063</v>
+        <v>2317.497434602128</v>
       </c>
       <c r="S22">
-        <v>0.008842958734099085</v>
+        <v>0.008597908720129537</v>
       </c>
       <c r="T22">
-        <v>0.008842958734099085</v>
+        <v>0.009596721437164979</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.5250895997382</v>
+        <v>5.538422</v>
       </c>
       <c r="H23">
-        <v>5.5250895997382</v>
+        <v>16.615266</v>
       </c>
       <c r="I23">
-        <v>0.04616281579105653</v>
+        <v>0.04539649083831242</v>
       </c>
       <c r="J23">
-        <v>0.04616281579105653</v>
+        <v>0.04574734568113767</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>47.4973459622794</v>
+        <v>47.50960133333334</v>
       </c>
       <c r="N23">
-        <v>47.4973459622794</v>
+        <v>142.528804</v>
       </c>
       <c r="O23">
-        <v>0.1988926824586115</v>
+        <v>0.193535760909338</v>
       </c>
       <c r="P23">
-        <v>0.1988926824586115</v>
+        <v>0.2143619332893629</v>
       </c>
       <c r="Q23">
-        <v>262.4270921913571</v>
+        <v>263.1282212357627</v>
       </c>
       <c r="R23">
-        <v>262.4270921913571</v>
+        <v>2368.153991121864</v>
       </c>
       <c r="S23">
-        <v>0.009181446262525983</v>
+        <v>0.008785844397006585</v>
       </c>
       <c r="T23">
-        <v>0.009181446262525983</v>
+        <v>0.009806489463065457</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.5250895997382</v>
+        <v>5.538422</v>
       </c>
       <c r="H24">
-        <v>5.5250895997382</v>
+        <v>16.615266</v>
       </c>
       <c r="I24">
-        <v>0.04616281579105653</v>
+        <v>0.04539649083831242</v>
       </c>
       <c r="J24">
-        <v>0.04616281579105653</v>
+        <v>0.04574734568113767</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>29.1032015654885</v>
+        <v>30.287135</v>
       </c>
       <c r="N24">
-        <v>29.1032015654885</v>
+        <v>90.861405</v>
       </c>
       <c r="O24">
-        <v>0.1218681530561857</v>
+        <v>0.1233780868179216</v>
       </c>
       <c r="P24">
-        <v>0.1218681530561857</v>
+        <v>0.1366546683236589</v>
       </c>
       <c r="Q24">
-        <v>160.797796288565</v>
+        <v>167.74293480097</v>
       </c>
       <c r="R24">
-        <v>160.797796288565</v>
+        <v>1509.68641320873</v>
       </c>
       <c r="S24">
-        <v>0.005625777100328983</v>
+        <v>0.005600932187878291</v>
       </c>
       <c r="T24">
-        <v>0.005625777100328983</v>
+        <v>0.006251588350743635</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5.538422</v>
+      </c>
+      <c r="H25">
+        <v>16.615266</v>
+      </c>
+      <c r="I25">
+        <v>0.04539649083831242</v>
+      </c>
+      <c r="J25">
+        <v>0.04574734568113767</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>22.4578325</v>
+      </c>
+      <c r="N25">
+        <v>44.915665</v>
+      </c>
+      <c r="O25">
+        <v>0.09148453321607808</v>
+      </c>
+      <c r="P25">
+        <v>0.06755272277719647</v>
+      </c>
+      <c r="Q25">
+        <v>124.380953590315</v>
+      </c>
+      <c r="R25">
+        <v>746.28572154189</v>
+      </c>
+      <c r="S25">
+        <v>0.004153076773990977</v>
+      </c>
+      <c r="T25">
+        <v>0.003090357760590469</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.1522935</v>
+      </c>
+      <c r="H26">
+        <v>0.304587</v>
+      </c>
+      <c r="I26">
+        <v>0.001248296080992841</v>
+      </c>
+      <c r="J26">
+        <v>0.000838629172652468</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>49.0911085</v>
+      </c>
+      <c r="N26">
+        <v>98.18221700000001</v>
+      </c>
+      <c r="O26">
+        <v>0.1999782101047527</v>
+      </c>
+      <c r="P26">
+        <v>0.1476650982825601</v>
+      </c>
+      <c r="Q26">
+        <v>7.47625673234475</v>
+      </c>
+      <c r="R26">
+        <v>29.905026929379</v>
+      </c>
+      <c r="S26">
+        <v>0.0002496320159577257</v>
+      </c>
+      <c r="T26">
+        <v>0.0001238362592023488</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
         <v>27</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>5.5250895997382</v>
-      </c>
-      <c r="H25">
-        <v>5.5250895997382</v>
-      </c>
-      <c r="I25">
-        <v>0.04616281579105653</v>
-      </c>
-      <c r="J25">
-        <v>0.04616281579105653</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>22.0917252885711</v>
-      </c>
-      <c r="N25">
-        <v>22.0917252885711</v>
-      </c>
-      <c r="O25">
-        <v>0.09250795836618125</v>
-      </c>
-      <c r="P25">
-        <v>0.09250795836618125</v>
-      </c>
-      <c r="Q25">
-        <v>122.0587616321576</v>
-      </c>
-      <c r="R25">
-        <v>122.0587616321576</v>
-      </c>
-      <c r="S25">
-        <v>0.004270427841264752</v>
-      </c>
-      <c r="T25">
-        <v>0.004270427841264752</v>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="G27">
+        <v>0.1522935</v>
+      </c>
+      <c r="H27">
+        <v>0.304587</v>
+      </c>
+      <c r="I27">
+        <v>0.001248296080992841</v>
+      </c>
+      <c r="J27">
+        <v>0.000838629172652468</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>49.64327433333333</v>
+      </c>
+      <c r="N27">
+        <v>148.929823</v>
+      </c>
+      <c r="O27">
+        <v>0.2022275203852691</v>
+      </c>
+      <c r="P27">
+        <v>0.2239890035330867</v>
+      </c>
+      <c r="Q27">
+        <v>7.5603479996835</v>
+      </c>
+      <c r="R27">
+        <v>45.362087998101</v>
+      </c>
+      <c r="S27">
+        <v>0.0002524398211658313</v>
+      </c>
+      <c r="T27">
+        <v>0.0001878437127162032</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <v>0.1522935</v>
+      </c>
+      <c r="H28">
+        <v>0.304587</v>
+      </c>
+      <c r="I28">
+        <v>0.001248296080992841</v>
+      </c>
+      <c r="J28">
+        <v>0.000838629172652468</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>46.493336</v>
+      </c>
+      <c r="N28">
+        <v>139.480008</v>
+      </c>
+      <c r="O28">
+        <v>0.1893958885666406</v>
+      </c>
+      <c r="P28">
+        <v>0.209776573794135</v>
+      </c>
+      <c r="Q28">
+        <v>7.080632866116</v>
+      </c>
+      <c r="R28">
+        <v>42.483797196696</v>
+      </c>
+      <c r="S28">
+        <v>0.0002364221454538942</v>
+      </c>
+      <c r="T28">
+        <v>0.0001759247545228448</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>0.1522935</v>
+      </c>
+      <c r="H29">
+        <v>0.304587</v>
+      </c>
+      <c r="I29">
+        <v>0.001248296080992841</v>
+      </c>
+      <c r="J29">
+        <v>0.000838629172652468</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>47.50960133333334</v>
+      </c>
+      <c r="N29">
+        <v>142.528804</v>
+      </c>
+      <c r="O29">
+        <v>0.193535760909338</v>
+      </c>
+      <c r="P29">
+        <v>0.2143619332893629</v>
+      </c>
+      <c r="Q29">
+        <v>7.235403470658</v>
+      </c>
+      <c r="R29">
+        <v>43.412420823948</v>
+      </c>
+      <c r="S29">
+        <v>0.0002415899318750941</v>
+      </c>
+      <c r="T29">
+        <v>0.000179770170762642</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.5</v>
+      </c>
+      <c r="G30">
+        <v>0.1522935</v>
+      </c>
+      <c r="H30">
+        <v>0.304587</v>
+      </c>
+      <c r="I30">
+        <v>0.001248296080992841</v>
+      </c>
+      <c r="J30">
+        <v>0.000838629172652468</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>30.287135</v>
+      </c>
+      <c r="N30">
+        <v>90.861405</v>
+      </c>
+      <c r="O30">
+        <v>0.1233780868179216</v>
+      </c>
+      <c r="P30">
+        <v>0.1366546683236589</v>
+      </c>
+      <c r="Q30">
+        <v>4.6125337941225</v>
+      </c>
+      <c r="R30">
+        <v>27.675202764735</v>
+      </c>
+      <c r="S30">
+        <v>0.000154012382255206</v>
+      </c>
+      <c r="T30">
+        <v>0.0001146025914353674</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+      <c r="G31">
+        <v>0.1522935</v>
+      </c>
+      <c r="H31">
+        <v>0.304587</v>
+      </c>
+      <c r="I31">
+        <v>0.001248296080992841</v>
+      </c>
+      <c r="J31">
+        <v>0.000838629172652468</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>22.4578325</v>
+      </c>
+      <c r="N31">
+        <v>44.915665</v>
+      </c>
+      <c r="O31">
+        <v>0.09148453321607808</v>
+      </c>
+      <c r="P31">
+        <v>0.06755272277719647</v>
+      </c>
+      <c r="Q31">
+        <v>3.42018191383875</v>
+      </c>
+      <c r="R31">
+        <v>13.680727655355</v>
+      </c>
+      <c r="S31">
+        <v>0.0001141997842850897</v>
+      </c>
+      <c r="T31">
+        <v>5.665168401306181E-05</v>
       </c>
     </row>
   </sheetData>
